--- a/data/trans_camb/IP16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,18</t>
+          <t>-34,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-9,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,09</t>
+          <t>-7,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>-34,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,98</t>
+          <t>-33,72</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>-13,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-26,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>-25,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 2,55</t>
+          <t>-83,01; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 8,07</t>
+          <t>-56,99; 47,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 14,17</t>
+          <t>-60,62; 37,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 35,67</t>
+          <t>-46,78; 37,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 25,11</t>
+          <t>-67,82; 10,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 35,4</t>
+          <t>-66,27; 16,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 15,31</t>
+          <t>-44,64; 26,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 11,87</t>
+          <t>-54,97; 10,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 19,79</t>
+          <t>-54,56; 8,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-27,32%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,83%</t>
+          <t>-35,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>-28,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>-14,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>-68,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,97%</t>
+          <t>-67,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>-29,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>-59,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>-56,24%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 7,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 21,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 38,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 197,9</t>
+          <t>-78,85; 158,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 147,73</t>
+          <t>-100,0; 91,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 199,06</t>
+          <t>-100,0; 121,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 48,51</t>
+          <t>-82,66; 104,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 39,06</t>
+          <t>-100,0; 62,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 63,87</t>
+          <t>-91,15; 68,12</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-13,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>17,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>8,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 17,94</t>
+          <t>-29,67; 2,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 13,49</t>
+          <t>-24,81; 8,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 29,6</t>
+          <t>-18,73; 14,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 16,8</t>
+          <t>5,63; 35,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 18,41</t>
+          <t>-4,65; 25,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 23,96</t>
+          <t>0,2; 35,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 12,04</t>
+          <t>-6,99; 15,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 11,6</t>
+          <t>-10,27; 11,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 20,39</t>
+          <t>-3,83; 19,79</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>-27,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>-16,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>-3,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>22,88%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 65,92</t>
+          <t>-51,98; 7,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,2; 45,71</t>
+          <t>-44,59; 21,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 102,4</t>
+          <t>-33,18; 38,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,87; 56,0</t>
+          <t>15,17; 197,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 60,26</t>
+          <t>-14,69; 147,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 78,04</t>
+          <t>-0,64; 199,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 35,89</t>
+          <t>-16,91; 48,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 36,44</t>
+          <t>-24,94; 39,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 60,14</t>
+          <t>-9,33; 63,87</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-34,32</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,1</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-34,5</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-33,72</t>
+          <t>15,21</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-13,03</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-26,84</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-25,27</t>
+          <t>7,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 0,0</t>
+          <t>-20,49; 13,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 47,37</t>
+          <t>-19,61; 17,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 37,39</t>
+          <t>-17,14; 18,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 37,03</t>
+          <t>-13,58; 22,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-67,82; 10,96</t>
+          <t>-13,61; 24,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 16,28</t>
+          <t>-10,65; 34,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 26,21</t>
+          <t>-13,22; 12,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-54,97; 10,9</t>
+          <t>-12,04; 15,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 8,23</t>
+          <t>-8,31; 20,77</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-11,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-35,25%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-28,73%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-68,79%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-67,23%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-29,02%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-59,74%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-56,24%</t>
+          <t>18,43%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,95; 37,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,6; 48,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,01; 52,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-78,85; 158,24</t>
+          <t>-29,9; 94,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 91,46</t>
+          <t>-30,4; 105,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,35</t>
+          <t>-20,88; 139,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,66; 104,74</t>
+          <t>-28,24; 37,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,96</t>
+          <t>-25,29; 46,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-91,15; 68,12</t>
+          <t>-17,75; 62,0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,21</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>6,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 13,32</t>
+          <t>-16,55; 17,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 17,39</t>
+          <t>-21,65; 13,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 18,93</t>
+          <t>-7,79; 29,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 22,56</t>
+          <t>-24,55; 16,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 24,91</t>
+          <t>-25,28; 18,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 34,94</t>
+          <t>-21,18; 23,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 12,19</t>
+          <t>-13,71; 12,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 15,18</t>
+          <t>-14,96; 11,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 20,77</t>
+          <t>-8,36; 20,39</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-11,26%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>-6,19%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 37,36</t>
+          <t>-35,26; 65,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 48,59</t>
+          <t>-47,2; 45,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 52,58</t>
+          <t>-16,8; 102,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 94,8</t>
+          <t>-42,87; 56,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 105,75</t>
+          <t>-44,35; 60,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 139,89</t>
+          <t>-37,73; 78,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,24; 37,56</t>
+          <t>-28,53; 35,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 46,32</t>
+          <t>-31,91; 36,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 62,0</t>
+          <t>-17,9; 60,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 47,37</t>
+          <t>-60,7; 44,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 37,03</t>
+          <t>-51,0; 37,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,82; 10,96</t>
+          <t>-67,89; 13,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 16,28</t>
+          <t>-66,43; 13,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 26,21</t>
+          <t>-47,08; 21,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,97; 10,9</t>
+          <t>-54,33; 13,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 8,23</t>
+          <t>-51,58; 8,66</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,85; 158,24</t>
+          <t>-78,43; 130,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 91,46</t>
+          <t>-100,0; 87,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,35</t>
+          <t>-100,0; 155,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-82,66; 104,74</t>
+          <t>-80,29; 81,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,96</t>
+          <t>-100,0; 84,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,15; 68,12</t>
+          <t>-90,36; 62,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 37,98</t>
+          <t>-3,97; 35,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 16,02</t>
+          <t>-28,71; 15,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 21,42</t>
+          <t>-21,74; 21,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 31,88</t>
+          <t>-9,95; 30,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 40,42</t>
+          <t>-3,16; 40,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 45,03</t>
+          <t>1,05; 45,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 28,37</t>
+          <t>-0,28; 28,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 20,05</t>
+          <t>-7,81; 23,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 28,61</t>
+          <t>-3,74; 27,62</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 216,23</t>
+          <t>-11,05; 185,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,87; 87,81</t>
+          <t>-69,64; 85,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 108,37</t>
+          <t>-55,85; 112,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 224,85</t>
+          <t>-29,98; 192,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 291,72</t>
+          <t>-9,61; 253,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 310,17</t>
+          <t>-4,41; 283,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 144,86</t>
+          <t>-0,48; 149,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 96,57</t>
+          <t>-24,21; 121,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 145,16</t>
+          <t>-12,6; 135,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 2,55</t>
+          <t>-29,21; 3,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 8,07</t>
+          <t>-24,14; 7,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 14,17</t>
+          <t>-17,24; 13,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 35,67</t>
+          <t>7,55; 37,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 25,11</t>
+          <t>-4,17; 26,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 35,4</t>
+          <t>0,9; 33,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 15,31</t>
+          <t>-6,86; 15,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 11,87</t>
+          <t>-10,58; 12,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 19,79</t>
+          <t>-4,97; 19,97</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 7,55</t>
+          <t>-51,33; 7,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 21,15</t>
+          <t>-42,8; 21,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 38,48</t>
+          <t>-31,46; 36,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,17; 197,9</t>
+          <t>22,52; 236,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 147,73</t>
+          <t>-13,8; 150,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 199,06</t>
+          <t>1,39; 195,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 48,51</t>
+          <t>-16,67; 50,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 39,06</t>
+          <t>-24,44; 42,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 63,87</t>
+          <t>-11,66; 68,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 13,32</t>
+          <t>-21,72; 11,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 17,39</t>
+          <t>-18,2; 18,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 18,93</t>
+          <t>-19,09; 20,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 22,56</t>
+          <t>-12,52; 23,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 24,91</t>
+          <t>-13,79; 23,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 34,94</t>
+          <t>-10,3; 35,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 12,19</t>
+          <t>-13,76; 11,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 15,18</t>
+          <t>-9,87; 16,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 20,77</t>
+          <t>-7,65; 20,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 37,36</t>
+          <t>-40,04; 34,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 48,59</t>
+          <t>-35,18; 55,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 52,58</t>
+          <t>-34,5; 56,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 94,8</t>
+          <t>-27,63; 104,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 105,75</t>
+          <t>-30,43; 104,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 139,89</t>
+          <t>-18,4; 158,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,24; 37,56</t>
+          <t>-28,8; 35,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 46,32</t>
+          <t>-21,34; 52,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 62,0</t>
+          <t>-15,76; 60,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 17,94</t>
+          <t>-17,71; 18,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 13,49</t>
+          <t>-21,63; 14,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 29,6</t>
+          <t>-10,86; 28,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 16,8</t>
+          <t>-22,29; 17,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 18,41</t>
+          <t>-21,6; 20,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 23,96</t>
+          <t>-18,83; 24,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 12,04</t>
+          <t>-14,85; 11,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 11,6</t>
+          <t>-15,19; 11,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 20,39</t>
+          <t>-6,89; 23,49</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 65,92</t>
+          <t>-37,64; 65,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,2; 45,71</t>
+          <t>-47,59; 47,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 102,4</t>
+          <t>-22,39; 94,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,87; 56,0</t>
+          <t>-40,99; 58,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 60,26</t>
+          <t>-38,05; 67,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 78,04</t>
+          <t>-34,17; 80,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 35,89</t>
+          <t>-30,83; 34,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 36,44</t>
+          <t>-32,44; 36,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 60,14</t>
+          <t>-14,59; 74,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 6,09</t>
+          <t>-10,32; 6,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 4,46</t>
+          <t>-14,37; 4,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 11,56</t>
+          <t>-5,6; 13,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 17,1</t>
+          <t>0,52; 18,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 14,89</t>
+          <t>-2,85; 14,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,01; 23,31</t>
+          <t>2,04; 23,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 8,71</t>
+          <t>-3,45; 9,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 7,25</t>
+          <t>-5,88; 6,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,83; 14,52</t>
+          <t>0,44; 14,22</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 16,34</t>
+          <t>-22,71; 17,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 12,07</t>
+          <t>-31,01; 13,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 30,77</t>
+          <t>-12,32; 39,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 61,31</t>
+          <t>1,5; 66,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 55,65</t>
+          <t>-7,61; 53,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,52; 82,48</t>
+          <t>6,21; 82,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 25,23</t>
+          <t>-8,12; 28,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 20,67</t>
+          <t>-14,48; 19,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,14; 43,66</t>
+          <t>1,6; 43,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 0,0</t>
+          <t>-83,3; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-60,7; 44,19</t>
+          <t>-61,05; 46,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 37,39</t>
+          <t>-68,79; 36,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 37,66</t>
+          <t>-47,19; 38,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,89; 13,75</t>
+          <t>-67,15; 12,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,43; 13,95</t>
+          <t>-66,36; 13,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 21,9</t>
+          <t>-45,34; 27,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 13,22</t>
+          <t>-54,4; 10,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 8,66</t>
+          <t>-55,32; 7,67</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,43; 130,18</t>
+          <t>-73,99; 149,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 87,54</t>
+          <t>-100,0; 109,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 155,5</t>
+          <t>-100,0; 102,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,29; 81,35</t>
+          <t>-81,68; 110,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 84,46</t>
+          <t>-100,0; 63,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-90,36; 62,79</t>
+          <t>-91,33; 58,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 35,7</t>
+          <t>-3,1; 36,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 15,27</t>
+          <t>-26,83; 13,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 21,67</t>
+          <t>-22,32; 22,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 30,58</t>
+          <t>-8,88; 30,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 40,05</t>
+          <t>-2,43; 41,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 45,91</t>
+          <t>-0,88; 45,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 28,47</t>
+          <t>0,35; 28,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 23,34</t>
+          <t>-6,07; 24,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 27,62</t>
+          <t>-3,92; 26,3</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 185,48</t>
+          <t>-8,45; 193,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,64; 85,26</t>
+          <t>-67,53; 76,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,85; 112,1</t>
+          <t>-55,81; 118,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 192,6</t>
+          <t>-24,73; 230,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 253,96</t>
+          <t>-11,02; 282,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 283,91</t>
+          <t>-2,99; 303,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 149,23</t>
+          <t>1,06; 138,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 121,3</t>
+          <t>-20,03; 121,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 135,12</t>
+          <t>-12,74; 130,97</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 3,05</t>
+          <t>-29,71; 3,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 7,96</t>
+          <t>-23,64; 8,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 13,92</t>
+          <t>-20,25; 14,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 37,1</t>
+          <t>7,55; 38,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 26,49</t>
+          <t>-2,55; 23,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 33,94</t>
+          <t>0,2; 33,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 15,49</t>
+          <t>-6,23; 15,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 12,49</t>
+          <t>-11,31; 11,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 19,97</t>
+          <t>-3,35; 19,86</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 7,93</t>
+          <t>-51,17; 11,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 21,84</t>
+          <t>-42,78; 22,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 36,47</t>
+          <t>-34,42; 36,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,52; 236,56</t>
+          <t>21,24; 209,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 150,23</t>
+          <t>-9,21; 125,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 195,67</t>
+          <t>-0,73; 177,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 50,76</t>
+          <t>-14,43; 52,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 42,73</t>
+          <t>-26,33; 37,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 68,03</t>
+          <t>-8,12; 62,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 11,53</t>
+          <t>-21,03; 11,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 18,74</t>
+          <t>-20,49; 17,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 20,14</t>
+          <t>-18,78; 19,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 23,63</t>
+          <t>-13,13; 22,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 23,99</t>
+          <t>-12,46; 25,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 35,97</t>
+          <t>-10,5; 34,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 11,73</t>
+          <t>-14,24; 11,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 16,41</t>
+          <t>-11,82; 15,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 20,56</t>
+          <t>-9,17; 20,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 34,63</t>
+          <t>-39,94; 35,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 55,32</t>
+          <t>-38,06; 52,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 56,78</t>
+          <t>-34,36; 55,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 104,29</t>
+          <t>-30,05; 84,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 104,11</t>
+          <t>-29,01; 105,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 158,16</t>
+          <t>-21,73; 138,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 35,09</t>
+          <t>-28,21; 36,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 52,18</t>
+          <t>-24,75; 48,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 60,88</t>
+          <t>-19,97; 58,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 18,18</t>
+          <t>-18,56; 17,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 14,53</t>
+          <t>-20,4; 16,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 28,11</t>
+          <t>-11,4; 27,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 17,23</t>
+          <t>-23,77; 16,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 20,21</t>
+          <t>-20,39; 19,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 24,09</t>
+          <t>-19,36; 25,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 11,5</t>
+          <t>-14,05; 12,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 11,82</t>
+          <t>-14,39; 11,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 23,49</t>
+          <t>-8,62; 20,48</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 65,68</t>
+          <t>-41,13; 59,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,59; 47,24</t>
+          <t>-45,15; 57,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 94,4</t>
+          <t>-22,49; 93,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 58,8</t>
+          <t>-43,29; 54,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 67,89</t>
+          <t>-37,56; 69,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 80,21</t>
+          <t>-35,1; 82,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 34,6</t>
+          <t>-28,42; 38,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 36,26</t>
+          <t>-30,6; 36,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 74,1</t>
+          <t>-17,66; 62,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 6,75</t>
+          <t>-10,36; 6,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 4,74</t>
+          <t>-13,29; 5,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 13,83</t>
+          <t>-6,68; 12,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,52; 18,54</t>
+          <t>0,73; 17,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 14,84</t>
+          <t>-3,67; 15,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,04; 23,48</t>
+          <t>1,86; 22,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 9,44</t>
+          <t>-3,32; 9,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,59</t>
+          <t>-6,21; 6,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,22</t>
+          <t>0,53; 14,73</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 17,82</t>
+          <t>-22,97; 17,64</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 13,43</t>
+          <t>-29,85; 13,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 39,22</t>
+          <t>-15,55; 34,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,5; 66,28</t>
+          <t>1,99; 65,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 53,14</t>
+          <t>-9,84; 54,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>6,21; 82,9</t>
+          <t>5,41; 82,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 28,37</t>
+          <t>-7,89; 27,52</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 19,21</t>
+          <t>-15,27; 19,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,6; 43,15</t>
+          <t>1,36; 43,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-34,32</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,1</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-34,5</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-33,72</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,03</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-26,84</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-25,27</t>
+          <t>2,73</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-83,3; 0,0</t>
+          <t>-14,46; 24,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 46,29</t>
+          <t>-15,42; 24,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-68,79; 36,08</t>
+          <t>-12,82; 28,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 38,34</t>
+          <t>-5,02; 29,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,15; 12,51</t>
+          <t>-25,04; 12,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,36; 13,02</t>
+          <t>-20,48; 18,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 27,06</t>
+          <t>-3,59; 22,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,4; 10,23</t>
+          <t>-14,58; 14,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 7,67</t>
+          <t>-10,78; 18,08</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-35,25%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-28,73%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-68,79%</t>
+          <t>-21,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-67,23%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-29,02%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-59,74%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-56,24%</t>
+          <t>8,73%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,4; 115,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,57; 108,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,57; 134,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,99; 149,98</t>
+          <t>-11,93; 160,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 109,71</t>
+          <t>-65,66; 67,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 102,86</t>
+          <t>-52,39; 100,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,68; 110,39</t>
+          <t>-9,58; 95,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 63,34</t>
+          <t>-39,32; 58,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,33; 58,45</t>
+          <t>-29,14; 73,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>-13,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,38</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,65</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,04</t>
+          <t>7,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 36,47</t>
+          <t>5,63; 35,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 13,94</t>
+          <t>-4,65; 25,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 22,77</t>
+          <t>-5,01; 33,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 30,32</t>
+          <t>-29,67; 2,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 41,78</t>
+          <t>-24,81; 8,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 45,64</t>
+          <t>-18,54; 14,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 28,23</t>
+          <t>-6,99; 15,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 24,65</t>
+          <t>-10,27; 11,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 26,3</t>
+          <t>-6,45; 19,11</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,34%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>60,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>-27,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>-16,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>19,75%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 193,25</t>
+          <t>15,17; 197,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 76,29</t>
+          <t>-14,69; 147,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 118,24</t>
+          <t>-14,44; 178,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 230,74</t>
+          <t>-51,98; 7,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 282,05</t>
+          <t>-44,59; 21,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 303,2</t>
+          <t>-33,5; 38,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 138,95</t>
+          <t>-16,91; 48,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 121,15</t>
+          <t>-24,94; 39,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 130,97</t>
+          <t>-15,57; 61,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,18</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,09</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,98</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 3,84</t>
+          <t>-13,58; 22,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 8,68</t>
+          <t>-13,61; 24,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 14,23</t>
+          <t>-32,52; 28,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 38,06</t>
+          <t>-20,49; 13,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 23,75</t>
+          <t>-19,61; 17,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 33,37</t>
+          <t>-16,41; 19,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 15,62</t>
+          <t>-13,22; 12,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 11,13</t>
+          <t>-12,04; 15,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 19,86</t>
+          <t>-20,9; 17,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-27,32%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,83%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>-11,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,97%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,17; 11,77</t>
+          <t>-29,9; 94,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 22,47</t>
+          <t>-30,4; 105,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 36,42</t>
+          <t>-65,81; 93,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,24; 209,1</t>
+          <t>-38,95; 37,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 125,58</t>
+          <t>-39,6; 48,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 177,99</t>
+          <t>-32,53; 56,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 52,07</t>
+          <t>-28,24; 37,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 37,23</t>
+          <t>-25,29; 46,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 62,33</t>
+          <t>-43,45; 47,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,21</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>6,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 11,3</t>
+          <t>-24,55; 16,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 17,74</t>
+          <t>-25,28; 18,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 19,51</t>
+          <t>-21,38; 24,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 22,39</t>
+          <t>-16,55; 17,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 25,17</t>
+          <t>-21,65; 13,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 34,33</t>
+          <t>-8,59; 28,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 11,9</t>
+          <t>-13,71; 12,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 15,59</t>
+          <t>-14,96; 11,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 20,21</t>
+          <t>-8,78; 19,92</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,26%</t>
+          <t>-6,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>15,57%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 35,88</t>
+          <t>-42,87; 56,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 52,55</t>
+          <t>-44,35; 60,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 55,12</t>
+          <t>-36,91; 79,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 84,68</t>
+          <t>-35,26; 65,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 105,48</t>
+          <t>-47,2; 45,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 138,31</t>
+          <t>-19,02; 98,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 36,37</t>
+          <t>-28,53; 35,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 48,54</t>
+          <t>-31,91; 36,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 58,19</t>
+          <t>-18,71; 60,2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>4,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 17,22</t>
+          <t>-0,53; 17,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 16,1</t>
+          <t>-2,4; 14,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 27,0</t>
+          <t>-10,52; 18,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 16,35</t>
+          <t>-10,88; 6,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 19,71</t>
+          <t>-13,99; 4,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 25,0</t>
+          <t>-6,56; 11,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 12,4</t>
+          <t>-3,55; 8,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 11,75</t>
+          <t>-5,98; 7,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 20,48</t>
+          <t>-5,34; 12,08</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-10,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 59,06</t>
+          <t>-1,21; 61,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 57,85</t>
+          <t>-6,92; 55,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 93,14</t>
+          <t>-28,37; 61,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 54,06</t>
+          <t>-24,42; 16,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 69,28</t>
+          <t>-31,09; 12,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 82,48</t>
+          <t>-14,65; 30,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 38,49</t>
+          <t>-8,5; 25,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 36,49</t>
+          <t>-14,85; 20,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 62,16</t>
+          <t>-13,5; 34,82</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>13,34</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>7,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-10,36; 6,43</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-13,29; 5,01</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 12,37</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 17,7</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 15,0</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 22,97</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 9,2</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 6,41</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 14,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-5,36%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-10,89%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>27,29%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>17,41%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>40,48%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>20,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-22,97; 17,64</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-29,85; 13,51</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-15,55; 34,03</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 65,25</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 54,72</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 82,32</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-7,89; 27,52</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-15,27; 19,17</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 43,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
